--- a/atividade_18P_lanilha EcoPower/proc/planilha_dados.xlsx
+++ b/atividade_18P_lanilha EcoPower/proc/planilha_dados.xlsx
@@ -28,1096 +28,1096 @@
     <t>CORES DOS CAMPOS</t>
   </si>
   <si>
+    <t>LORRAINE GONÇALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>LICITACAO</t>
+  </si>
+  <si>
+    <t>ELKJAER GONÇALVES DE CARVALHO COSTA</t>
+  </si>
+  <si>
+    <t>K&amp;F MATEUS SERVICOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>ADRIANO VIDAL VALVERDE</t>
+  </si>
+  <si>
+    <t>ELKJAER GONCALVES DE CARVALHO COSTA</t>
+  </si>
+  <si>
+    <t>CESAR DIAS PONTE</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>GILBERTO JOSE DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>FABIO SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MINARINI SOLUÇÕES FINANCEIRAS</t>
+  </si>
+  <si>
+    <t>KAIQUE DOS SANTOS PEDRIZ</t>
+  </si>
+  <si>
+    <t>RAPHAEL DE OLIVEIRA CARVALHO</t>
+  </si>
+  <si>
+    <t>GILSON MORAIS DA CONCEIÇÃO</t>
+  </si>
+  <si>
+    <t>DANIEL ALEXANDRE</t>
+  </si>
+  <si>
+    <t>SANDRA LUCIANA PETERSEN GUTSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINARINI SOLUCOES FINANCEIRAS EIRELI    </t>
+  </si>
+  <si>
+    <t>VANDERLEI NUNES DA SILVA</t>
+  </si>
+  <si>
+    <t>PAULO CESAR SCHNEIDER JUNGES</t>
+  </si>
+  <si>
+    <t>THIAGO LUIZ ANDOLFATO SOARES</t>
+  </si>
+  <si>
+    <t>HENRIQUE MORINA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>CARLOS CESAR ALVES DE SOUZA</t>
+  </si>
+  <si>
+    <t>CHRISTYANE MARIANO DE JESUS</t>
+  </si>
+  <si>
+    <t>WILMAR DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VISANGE CORRETORA  DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>DOUGLAS CESAR CASON</t>
+  </si>
+  <si>
+    <t>LUIZ FABIANO SOARES ALVES</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO CAVALCANTI DE MACEDO JUNI</t>
+  </si>
+  <si>
+    <t>JULIO MOREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>FABIANE ARAGÃO BARBOZA BOLIGON</t>
+  </si>
+  <si>
+    <t>IEDA MARA BRIZUENA</t>
+  </si>
+  <si>
+    <t>MARCIA PINHEIRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>AMOM LIMA DE CARVALHO GOMES</t>
+  </si>
+  <si>
+    <t>VELOX SOLUÇOES FINANCEIRAS</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA DA SILVA</t>
+  </si>
+  <si>
+    <t>IRAN RODRIGUES DE MESQUITA SEGUNDO</t>
+  </si>
+  <si>
+    <t>AUGUSTO RICARDO CARNEIRO NETO</t>
+  </si>
+  <si>
+    <t>ECOPOWER EFICIENCIA ENERGETICA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO ALEXANDRE MALDO                 </t>
+  </si>
+  <si>
+    <t>NERIO DOMINGOS DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCOS WILLIAN MIRACHI DOS SANTOS</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO CLARET DE SOUZA SIMOES</t>
+  </si>
+  <si>
+    <t>TIAGO BATTISTELLA GONCALO</t>
+  </si>
+  <si>
+    <t>A.F 360 FRANQUIAS LTDA.</t>
+  </si>
+  <si>
+    <t>EDANGE ANDRADE BOAVENTURA</t>
+  </si>
+  <si>
+    <t>RENATO VIEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>TIAGO SENA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA CAMPOS SILVA DUARTE             </t>
+  </si>
+  <si>
+    <t>AFRANIO ZAMPOLI</t>
+  </si>
+  <si>
+    <t>BANNEG CONSULTORIA EMPRESARIAL E GESTAO</t>
+  </si>
+  <si>
+    <t>CAIO RIBEIRO DE SOUZA</t>
+  </si>
+  <si>
+    <t>MAYARA CRISTINA CARVALHO FURNIEL MORAIS</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS TEODORO DA COSTA MILLIATTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRLENE BATISTA DE OLIBEIRA             </t>
+  </si>
+  <si>
+    <t>COOPERCITRUS COOPERATIVA DE PRODUTORES</t>
+  </si>
+  <si>
+    <t>RAPHAEL ALMENDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINARINI </t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO CASTRO DE ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEANDRO PEREIRA LEMES                   </t>
+  </si>
+  <si>
+    <t>ANTONIO BUENO FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K &amp; F MATEUS SERVIÇOS ADMINISTRATIVOS </t>
+  </si>
+  <si>
+    <t>CRISTIANO ALTARUGIO</t>
+  </si>
+  <si>
+    <t>DANIEL CRISTIANO SOARES</t>
+  </si>
+  <si>
+    <t>ALEX FABIANO NOBLE DIAS</t>
+  </si>
+  <si>
+    <t>JOAO PAULO FRANÇA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL ALEXANDRE DA SILVA </t>
+  </si>
+  <si>
+    <t>DANIEL RAMOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>FLAVIO ROBERTO CHRISTOFOLO</t>
+  </si>
+  <si>
+    <t>BENEDITO MENDES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MARCELO DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIAGO CORADO MASCARENHAS </t>
+  </si>
+  <si>
+    <t>LEANDRO PEREIRA LEMES</t>
+  </si>
+  <si>
+    <t>AMOM LIIMA DE CARVALHO GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARO JOSE BARBOSA             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA MAYARA DE ARAUJO BARBOSA       </t>
+  </si>
+  <si>
+    <t>GRAZIELLA FEITOZA DIAS</t>
+  </si>
+  <si>
+    <t>ELANE DE SOUSA BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIAGO BATTISTELLA GONCALO               </t>
+  </si>
+  <si>
+    <t>ELANE PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>LUIZ CRISTIANO FERREIRA DIAS</t>
+  </si>
+  <si>
+    <t>KARLA VILELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEANDRO DIAS MARTINS                    </t>
+  </si>
+  <si>
+    <t>PAULO DE MORAIS CUNHA</t>
+  </si>
+  <si>
+    <t>MARCIO FLOSI DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>GREGORIO KABACHIAN NOGAROTO</t>
+  </si>
+  <si>
+    <t>CLEBER PEDROTTI PINTO</t>
+  </si>
+  <si>
+    <t>JADER RAFAEL CORACINI DE ASSIS</t>
+  </si>
+  <si>
+    <t>DEVILSON DA SILVA SOUZA</t>
+  </si>
+  <si>
+    <t>ANDERSON LUIZ DE JESUS</t>
+  </si>
+  <si>
+    <t>GREGORIO KARABACHIAN NOGAROTO</t>
+  </si>
+  <si>
+    <t>ALICIO MUSSIO MAGALHAES DE PAULA</t>
+  </si>
+  <si>
+    <t>LUZ KARINA RAQUEL BOTBOL</t>
+  </si>
+  <si>
+    <t>EDUARDO DE ABREU PASSAGLI</t>
+  </si>
+  <si>
+    <t>NEIRALDO MOURA MENDES</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO EVANGELISTA JUNIOR</t>
+  </si>
+  <si>
+    <t>RICARDO BELLAFRONTE GREGUIN</t>
+  </si>
+  <si>
+    <t>GUILHERME MAIA NOGUEIRA</t>
+  </si>
+  <si>
+    <t>VANESSA SUELI ESTEVES DE OLIVEIRA ANDRAD</t>
+  </si>
+  <si>
+    <t>BRUNA VAZ DE LIMA</t>
+  </si>
+  <si>
+    <t>IGOR PIERRE SEVILHA MANGABEIRA BORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTYANE MARIANO DE JESUS             </t>
+  </si>
+  <si>
+    <t>THIAGO GASPARINI GUIMARÃES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONEL </t>
+  </si>
+  <si>
+    <t>BRENO DA SILVA PEREIRA</t>
+  </si>
+  <si>
+    <t>ROBSON CARDOSO DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO MALDO </t>
+  </si>
+  <si>
+    <t>RIVALDO CRISTIANO KAZAMA DA CUNHA</t>
+  </si>
+  <si>
+    <t>WELBER KELEM TAVARES</t>
+  </si>
+  <si>
+    <t>WELLITON ASSIS DE AMARAL</t>
+  </si>
+  <si>
+    <t>VANESSA SCALDO DANI</t>
+  </si>
+  <si>
+    <t>FABRICIO GUIMARAES FELIX</t>
+  </si>
+  <si>
+    <t>GIOVANI LEAL TRAVI</t>
+  </si>
+  <si>
+    <t>LARINY CARLA</t>
+  </si>
+  <si>
+    <t>ADRIANA APARECIDA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>FABIO JUNIOR VARGAS DA ROSA</t>
+  </si>
+  <si>
+    <t>RODRIGO LESTA MONTEIRO</t>
+  </si>
+  <si>
+    <t>JULIANA MOSCARDO</t>
+  </si>
+  <si>
+    <t>MANOEL FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCOS AREONDES DA SILVA</t>
+  </si>
+  <si>
+    <t>FABIANO CAMILLO</t>
+  </si>
+  <si>
+    <t>JOAO FERNANDES DA SILVA NETO</t>
+  </si>
+  <si>
+    <t>BEM SAFE CORRETORA DE SEGUROS E INTERMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILMAR BELSHOFF                         </t>
+  </si>
+  <si>
+    <t>K &amp; F MATEUS SERVIÇOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>MARCIO ANTONIO DE FRANCA MORAES</t>
+  </si>
+  <si>
+    <t>PATRICK ISRAEL CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO HENRIQUE AQUINO DE MATTOS       </t>
+  </si>
+  <si>
+    <t>JOAO BATISTA LEONEL JUNIOR-ME</t>
+  </si>
+  <si>
+    <t>ANALICE  DIOGO DA CRUZ FURIOTTI</t>
+  </si>
+  <si>
+    <t>GUTEMBERG DIAS</t>
+  </si>
+  <si>
+    <t>ALEX CASTRO CLARA</t>
+  </si>
+  <si>
+    <t>ZAMPOLI REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>JULIO NETO DIAS EVANGELISTA</t>
+  </si>
+  <si>
+    <t>RUBENS DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>COOPERCITRUS COOPERATIVA DE PRODUTORES RURAIS</t>
+  </si>
+  <si>
+    <t>FLAVIO CONCEICAO DUTRA ME</t>
+  </si>
+  <si>
+    <t>LUCIO CESAR GONÇALVES</t>
+  </si>
+  <si>
+    <t>ELAINE CRISTINA ZAFALON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDENILSON DE SOUZA RODRIGUES         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL RAMOS DE ALMEIDA </t>
+  </si>
+  <si>
+    <t>EDER DONIZETI NICOLETI</t>
+  </si>
+  <si>
+    <t>ZANON E ZANON CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>MARCOS CESAR DA SILVA GUIMARAES</t>
+  </si>
+  <si>
+    <t>ASSISTEC COMERCIO DE EQUIPAMENTOS ELETRO</t>
+  </si>
+  <si>
+    <t>MARCIO VALMAR SALES</t>
+  </si>
+  <si>
+    <t>MATEUS REBELLO</t>
+  </si>
+  <si>
+    <t>RICARDO MALDO</t>
+  </si>
+  <si>
+    <t>MIRACH STAR INTERMEDIAÇÃO DE NEGOCIOS LT</t>
+  </si>
+  <si>
+    <t>ECOPOWER EFICIENTE ENERGETICA LTDA</t>
+  </si>
+  <si>
+    <t>DELMO DA SILVA RAMOS</t>
+  </si>
+  <si>
+    <t>MARCUS V ARAUJO DE AQUINO ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>FERNANDO BACELAR CAMPELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON LUIZ DE JESUS </t>
+  </si>
+  <si>
+    <t>MINARINI SILUCOES FINANCEIRAS EIRELI</t>
+  </si>
+  <si>
+    <t>DUILIO ALEX PEREIRA</t>
+  </si>
+  <si>
+    <t>LUIZ GUILHERME SOUZA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>DENIS FERNANDO DIAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ANDERSON DE ALMEIDA REGO</t>
+  </si>
+  <si>
+    <t>GLAYSSON ROCHA GABRIEL</t>
+  </si>
+  <si>
+    <t>JEAN FERNANDO ARANDA GARRET ADAMANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE EDUARDO CASTRO DE ARAUJO           </t>
+  </si>
+  <si>
+    <t>F.C REICHEMBACK CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>PAULO FLAVIO GUIMARAES</t>
+  </si>
+  <si>
+    <t>ADEMIR DE SOUSA OSIRO</t>
+  </si>
+  <si>
+    <t>MAGNA KATIA SILVA SANCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEDITO MENDES DE OLIVEIRA             </t>
+  </si>
+  <si>
+    <t>JORGE SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSE EUZEBIO LIMA PEREIRA</t>
+  </si>
+  <si>
+    <t>RICARDO DE PAULA SOUZA</t>
+  </si>
+  <si>
+    <t>FERNANDO ANTONIO COSTA POMPEU</t>
+  </si>
+  <si>
+    <t>ALEX HENRIQUE DA CUNHA</t>
+  </si>
+  <si>
+    <t>ANDERSON RAPACCI</t>
+  </si>
+  <si>
+    <t>FRANCISCO JOSE NOGUEIRA SALES</t>
+  </si>
+  <si>
+    <t>TIAGO CORADO MASCARENHAS</t>
+  </si>
+  <si>
+    <t>CAIO RIBERIO DE SOUZA</t>
+  </si>
+  <si>
+    <t>MAGNA LUCIA SOUZA FERNANDES</t>
+  </si>
+  <si>
+    <t>PRISCILA DE SOUZA SANTOS</t>
+  </si>
+  <si>
+    <t>GIS GESTAO IMOBILIARIA SEGURA LTDA</t>
+  </si>
+  <si>
+    <t>IGOR NUNES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>GILDO AFONSO VIEIRA</t>
+  </si>
+  <si>
+    <t>VITORIO JUNIOR LOURENCO</t>
+  </si>
+  <si>
+    <t>SIMONE VAN HEES ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELOX SOLUÇOES FINANCEIRAS              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA CAMPOS SILVA DUARTE </t>
+  </si>
+  <si>
+    <t>FLAVIO RONELE CARVALHO CINTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K&amp;F MATEUS SERVICOS ADMINISTRATIVOS     </t>
+  </si>
+  <si>
+    <t>JOICE BOMFIM</t>
+  </si>
+  <si>
+    <t>RAFAEL ANDRADE DOS REIS</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO AMORIN</t>
+  </si>
+  <si>
+    <t>WELLITON ASSIS</t>
+  </si>
+  <si>
+    <t>ECOPOWER</t>
+  </si>
+  <si>
+    <t>FRANCISCO AILTON FERREIRA</t>
+  </si>
+  <si>
+    <t>WILSTON SANTOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>LUCIO CESAR GONCALVES</t>
+  </si>
+  <si>
+    <t>GABRIEL DUNNINGHAN TIBURCIO LEITAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO ROBERTO CLARET DE SOUZA SIMOES    </t>
+  </si>
+  <si>
+    <t>ALVARO JOSE BARBOSA</t>
+  </si>
+  <si>
+    <t>AIRTON CAPASSI</t>
+  </si>
+  <si>
+    <t>LINDOMAR SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARCELA SILVA CAMPOS</t>
+  </si>
+  <si>
+    <t>WR BALDACIN FRANCHISING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO DOS SANTOS                      </t>
+  </si>
+  <si>
+    <t>RICARDO CARNEIRO DOURADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENO DA SILVA PEREIRA </t>
+  </si>
+  <si>
+    <t>RICARDO LUIS AFONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICIO </t>
+  </si>
+  <si>
+    <t>GUTEMBERG</t>
+  </si>
+  <si>
+    <t>AGBERTO</t>
+  </si>
+  <si>
+    <t>DANIEL SALGADO DE SOUZA</t>
+  </si>
+  <si>
+    <t>RICARDO HENRIQUE AQUINO DE MATTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAN RODRIGUES DE MESQUITA SEGUNDO      </t>
+  </si>
+  <si>
+    <t>ARLAN RODRIGUES ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO DOS SANTOS </t>
+  </si>
+  <si>
+    <t>VALTER RICARDO GONÇALVES FARIA</t>
+  </si>
+  <si>
+    <t>GLAUCO LESSA</t>
+  </si>
+  <si>
+    <t>ALECSSANDRA SANTANA REIS</t>
+  </si>
+  <si>
+    <t>WELINGTON DE FARIA LIMA</t>
+  </si>
+  <si>
+    <t>EMERSON LUIZ DA SILVA</t>
+  </si>
+  <si>
+    <t>LOHANNA QUEIROZ COHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE HUMBERTO GAZONI                    </t>
+  </si>
+  <si>
+    <t>SIDNEI</t>
+  </si>
+  <si>
+    <t>JHONATAN KAUE MORAIS DA SILVEIRA</t>
+  </si>
+  <si>
+    <t>SIRLENE BATISTA DE OLIBEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCIO FLOSI DE OLIVEIRA                </t>
+  </si>
+  <si>
+    <t>MARCELO POLIZELLI NOGUEIRA</t>
+  </si>
+  <si>
+    <t>MAURICIO DA SILVA KLEINICKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA PAULA OYADOMARI                     </t>
+  </si>
+  <si>
+    <t>ALVARO</t>
+  </si>
+  <si>
+    <t>MARLON HENRIQUE ROSA</t>
+  </si>
+  <si>
+    <t>ANDERSON LUCAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JOAO ROBERTO TEOFILO DE SOUSA</t>
+  </si>
+  <si>
+    <t>ARLINDO JOSE DE PAIVA E MATOS</t>
+  </si>
+  <si>
+    <t>FABIANO LUIS FERREIRA MOREIRA</t>
+  </si>
+  <si>
+    <t>ANDRE OLIVEIRA MARCELINO</t>
+  </si>
+  <si>
+    <t>JOAO AUGUSTO DE SOUZA FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAVIO CONCEICAO DUTRA ME               </t>
+  </si>
+  <si>
+    <t>ELIAS SANTOS BARBOSA</t>
+  </si>
+  <si>
+    <t>JOÃO FERNANDES DA SILVA NETO</t>
+  </si>
+  <si>
+    <t>BRUNO GOMES TRINDADE</t>
+  </si>
+  <si>
+    <t>MARCILIO SANTANA DE ALMEIDA JUNIOR</t>
+  </si>
+  <si>
+    <t>RICARDO ALEXANDRE MALDO</t>
+  </si>
+  <si>
+    <t>CLEBER MATIAS DE ANDRADE</t>
+  </si>
+  <si>
+    <t>GILBERTO CARLOS PEREIRA</t>
+  </si>
+  <si>
+    <t>LEANDRO DIAS MARTINS</t>
+  </si>
+  <si>
+    <t>CHARLES DALFIOR BAYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO FIRMINO NETO </t>
+  </si>
+  <si>
+    <t>MELINA NUNES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CICERO MARIANO DA SILVA</t>
+  </si>
+  <si>
+    <t>FELIPE SIMOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANO SILVESTRE DA SILVA              </t>
+  </si>
+  <si>
+    <t>ISAIS REIS BARRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO MENEZES BRAUN DA SILVA         </t>
+  </si>
+  <si>
+    <t>ANA LIZA RODRIGUES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>OCEANICA SOLAR SERVIÇOS DE MARKETING EIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOSTENES CHRISTIAN DE OLIVEIRA          </t>
+  </si>
+  <si>
+    <t>ALYSON RACHEL SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA RUBACK DA SILVA</t>
+  </si>
+  <si>
+    <t>ADEMIR NUNES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>BRUNO ALARCÃO CARISIO</t>
+  </si>
+  <si>
+    <t>JANILSON GOMES DA FONSECA</t>
+  </si>
+  <si>
+    <t>GLEYDSON SIQUEIRA LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t>RICARDO DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL RAMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE AUGUSTO EVANGELISTA JUNIOR         </t>
+  </si>
+  <si>
+    <t>FABIANA KAREN RUZ BORGES</t>
+  </si>
+  <si>
+    <t>GILVANE DA SILVA</t>
+  </si>
+  <si>
+    <t>DOUGLAS BIANKI PERIOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCILIO </t>
+  </si>
+  <si>
+    <t>PAULO GUIMARÃES</t>
+  </si>
+  <si>
+    <t>PAULO EDUARDO BARBOSA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO CLARET DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELBER KELEM TAVARES                    </t>
+  </si>
+  <si>
+    <t>FERNANDO MENEZES BRAUN DA SILVA</t>
+  </si>
+  <si>
+    <t>FABIO FARIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CLAUDIO ANDRE RAMBO</t>
+  </si>
+  <si>
+    <t>DANILO BRITO LESSA</t>
+  </si>
+  <si>
+    <t>FELIPE SERRA DARROZ</t>
+  </si>
+  <si>
+    <t>JOSE WILLKER BEZERRA DA SILVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADRIANO SILVESTE </t>
   </si>
   <si>
+    <t>PATRICIA MAYARA DE ARAUJO BARBOSA</t>
+  </si>
+  <si>
+    <t>JOSE GILBERTO MARTINS</t>
+  </si>
+  <si>
+    <t>LEONARDO SILVEIRA MASSUCATO</t>
+  </si>
+  <si>
+    <t>GUSTAVO FERNANDO DAVANSO</t>
+  </si>
+  <si>
+    <t>VICTOR LUIS FIOMANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCIA ADRIANA DE OLIVEIRA COSTA        </t>
+  </si>
+  <si>
+    <t>MFH CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>GILMAR BELSHOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNO ALARCÃO CARISIO                   </t>
+  </si>
+  <si>
+    <t>RENATO ALVES</t>
+  </si>
+  <si>
+    <t>RODRIGO GONZAGA</t>
+  </si>
+  <si>
+    <t>JAIME CICERO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ALEXANDRE AUGUSTO SPADA PEGORARO</t>
+  </si>
+  <si>
+    <t>RENAN SARAVY  DE CARVALHO</t>
+  </si>
+  <si>
+    <t>FABRICIO SÃO PEDRO DE GINO</t>
+  </si>
+  <si>
+    <t>MAYCON OLIVEIRA AMARAL</t>
+  </si>
+  <si>
+    <t>THIAGO PIAZENTIN GONCALVES BROCARDO</t>
+  </si>
+  <si>
+    <t>MARIA CANDIDA SPADA</t>
+  </si>
+  <si>
+    <t>SOSTENES CHRISTIAN DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILHERME MAIA NOGUEIRA                 </t>
+  </si>
+  <si>
+    <t>MAIKE YUJI ITO</t>
+  </si>
+  <si>
+    <t>GABRIEL POLI ARIMATHEA</t>
+  </si>
+  <si>
+    <t>DANTE PEREZ CARPIGIANI</t>
+  </si>
+  <si>
+    <t>CARLOS HENRIQUE HONORATO VAN DER BROOCKE</t>
+  </si>
+  <si>
+    <t>ARI DE ALMEIDA FILHO</t>
+  </si>
+  <si>
+    <t>JORGE LUIS PEREIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>M SANTOS ALVES CORRESPONDENTE BANCARIO L</t>
+  </si>
+  <si>
+    <t>LUCAS HENRIQUE XAVIER DE CARVALHO</t>
+  </si>
+  <si>
+    <t>SANDRA BENEDITA MONTEIRO MARINAI</t>
+  </si>
+  <si>
+    <t>ADRIANO SILVESTRE DA SILVA</t>
+  </si>
+  <si>
+    <t>RODRIGO PEREIRA MARTINS</t>
+  </si>
+  <si>
+    <t>BRENDO SILVA MONTOZELO</t>
+  </si>
+  <si>
+    <t>ANDRE ALEXANDRE DOS SANTOS SILVEIRA</t>
+  </si>
+  <si>
+    <t>EDMUNDO DINIZ NOGAROTO ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANO SILVESTRE DA SILVA </t>
+  </si>
+  <si>
+    <t>MARCIO LEME DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL RAMOS DE ALMEIDA                 </t>
+  </si>
+  <si>
+    <t>RODRIGO DE LIMA SILVA</t>
+  </si>
+  <si>
+    <t>WELLINGTON MESSIAS DE ARAUJO GOES</t>
+  </si>
+  <si>
+    <t>DIEGO DIAS</t>
+  </si>
+  <si>
+    <t>JOSE MARIA LOBATO</t>
+  </si>
+  <si>
+    <t>LUIZ GONZAGA DANTAS DA SILVA</t>
+  </si>
+  <si>
+    <t>CLAUDENILSON DE SOUZA RODRIGUES</t>
+  </si>
+  <si>
+    <t>WANDERSON LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLITON ASSIS DE AMARAL </t>
+  </si>
+  <si>
+    <t>ADRIANO SILVESTRE</t>
+  </si>
+  <si>
+    <t>JOSE SILVANEI FACCA FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAINE CRISTINA ZAFALON                 </t>
+  </si>
+  <si>
+    <t>PAULO KOCHHANN JUNIOR</t>
+  </si>
+  <si>
+    <t>IAN MESSERE ROMANCINI OLIVEIRA SANTOS LT</t>
+  </si>
+  <si>
+    <t>MINARINI SOLUCOES FINANCEIRAS EIRELI</t>
+  </si>
+  <si>
+    <t>REGINALDO BLASQUES DIAS</t>
+  </si>
+  <si>
+    <t>TIAGO CORADO MASCARENAHS</t>
+  </si>
+  <si>
+    <t>IGOR LUIZ DA COSTA MACHADO</t>
+  </si>
+  <si>
+    <t>MARCIA ADRIANA DE OLIVEIRA COSTA</t>
+  </si>
+  <si>
+    <t>RICARDO GREGUIN</t>
+  </si>
+  <si>
+    <t>EDIVAN ANDRADE DA SILVA</t>
+  </si>
+  <si>
+    <t>FULVIO LUCAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ALEXSANDRO DA SILVA</t>
+  </si>
+  <si>
+    <t>TELIEDER ARAUJO</t>
+  </si>
+  <si>
+    <t>VANESSA CAMPOS SILVA DUARTE</t>
+  </si>
+  <si>
+    <t>DAIANE -A.L.R. DOS SANTOS E D.S.CAETANO</t>
+  </si>
+  <si>
+    <t>MARCIA REGINA AZEVEDO FIGUEIREDO</t>
+  </si>
+  <si>
+    <t>RAUL ZANDONA JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITORIO JUNIOR LOURENCO                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE WILLKER BEZERRA DA SILVA           </t>
+  </si>
+  <si>
+    <t>LUIZ ANTONIO PAIVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MATHEUS PEREIRA BOTARO</t>
+  </si>
+  <si>
+    <t>LEANDRO PEREIRA FELLINI</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO BUENO</t>
+  </si>
+  <si>
     <t>CYNTHIA DA SILVA VILHALVA SIGNORI</t>
   </si>
   <si>
-    <t xml:space="preserve">SIRLENE BATISTA DE OLIBEIRA             </t>
-  </si>
-  <si>
-    <t>PAULO ROBERTO CLARET DE SOUZA SIMOES</t>
-  </si>
-  <si>
-    <t>RODRIGO PEREIRA MARTINS</t>
-  </si>
-  <si>
-    <t>MARCIO VALMAR SALES</t>
-  </si>
-  <si>
-    <t>JOAO ROBERTO TEOFILO DE SOUSA</t>
-  </si>
-  <si>
-    <t>K &amp; F MATEUS SERVIÇOS ADMINISTRATIVOS</t>
-  </si>
-  <si>
-    <t>GILBERTO CARLOS PEREIRA</t>
-  </si>
-  <si>
-    <t>MARCOS AREONDES DA SILVA</t>
-  </si>
-  <si>
-    <t>JORGE LUIS PEREIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WELLITON ASSIS DE AMARAL </t>
-  </si>
-  <si>
-    <t>MARIA CANDIDA SPADA</t>
-  </si>
-  <si>
-    <t>BEM SAFE CORRETORA DE SEGUROS E INTERMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELOX SOLUÇOES FINANCEIRAS              </t>
-  </si>
-  <si>
-    <t>AUGUSTO RICARDO CARNEIRO NETO</t>
-  </si>
-  <si>
-    <t>SANDRA BENEDITA MONTEIRO MARINAI</t>
-  </si>
-  <si>
-    <t>GLAUCO LESSA</t>
-  </si>
-  <si>
-    <t>RENATO ALVES</t>
-  </si>
-  <si>
-    <t>COOPERCITRUS COOPERATIVA DE PRODUTORES RURAIS</t>
-  </si>
-  <si>
-    <t>ALVARO</t>
-  </si>
-  <si>
-    <t>MFH CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GILMAR BELSHOFF                         </t>
-  </si>
-  <si>
-    <t>TELIEDER ARAUJO</t>
+    <t>DEIVYTH ALVES CODRIGNANI</t>
+  </si>
+  <si>
+    <t>MARCOS POLI</t>
+  </si>
+  <si>
+    <t>CAROLINA NAKASHIMA ROCHA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR DE SOUZA LEITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIO ANDRE RAMBO                     </t>
+  </si>
+  <si>
+    <t>JOAO LEONEL</t>
+  </si>
+  <si>
+    <t>DIEGO ORLANDO LACERDA</t>
+  </si>
+  <si>
+    <t>K&amp;F MATEUS SERVIÇOS ADM</t>
+  </si>
+  <si>
+    <t>RAPHAEL CARLOS CUSTODIO E SILVA</t>
+  </si>
+  <si>
+    <t>WASHINGTON BELTRÃO</t>
+  </si>
+  <si>
+    <t>AILTON ROGERIO RODRIGUES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>FLAVIO HENRIQUE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>EDIVALDO BERTUOLO JUNIOR</t>
   </si>
   <si>
     <t>BEVICRED INFORMAÇOES CADASTRIAS LTDA</t>
-  </si>
-  <si>
-    <t>EDER DONIZETI NICOLETI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURICIO </t>
-  </si>
-  <si>
-    <t>RAPHAEL DE OLIVEIRA CARVALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDENILSON DE SOUZA RODRIGUES         </t>
-  </si>
-  <si>
-    <t>WELBER KELEM TAVARES</t>
-  </si>
-  <si>
-    <t>DANIEL CRISTIANO SOARES</t>
-  </si>
-  <si>
-    <t>GUSTAVO FERNANDO DAVANSO</t>
-  </si>
-  <si>
-    <t>ELANE PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>IAN MESSERE ROMANCINI OLIVEIRA SANTOS LT</t>
-  </si>
-  <si>
-    <t>BANNEG CONSULTORIA EMPRESARIAL E GESTAO</t>
-  </si>
-  <si>
-    <t>DOUGLAS BIANKI PERIOLO</t>
-  </si>
-  <si>
-    <t>BENEDITO MENDES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>A.F 360 FRANQUIAS LTDA.</t>
-  </si>
-  <si>
-    <t>DIEGO ORLANDO LACERDA</t>
-  </si>
-  <si>
-    <t>THIAGO PIAZENTIN GONCALVES BROCARDO</t>
-  </si>
-  <si>
-    <t>EDMUNDO DINIZ NOGAROTO ME</t>
-  </si>
-  <si>
-    <t>PAULO ROBERTO CLARET DE SOUZA</t>
-  </si>
-  <si>
-    <t>DUILIO ALEX PEREIRA</t>
-  </si>
-  <si>
-    <t>MARCIA PINHEIRO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>JAIME CICERO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>AILTON ROGERIO RODRIGUES OLIVEIRA</t>
-  </si>
-  <si>
-    <t>ALVARO JOSE BARBOSA</t>
-  </si>
-  <si>
-    <t>ALEXANDRE AUGUSTO SPADA PEGORARO</t>
-  </si>
-  <si>
-    <t>GUILHERME MAIA NOGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA CAMPOS SILVA DUARTE             </t>
-  </si>
-  <si>
-    <t>ADEMIR DE SOUSA OSIRO</t>
-  </si>
-  <si>
-    <t>ALYSON RACHEL SOARES DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO FIRMINO NETO </t>
-  </si>
-  <si>
-    <t>GUTEMBERG DIAS</t>
-  </si>
-  <si>
-    <t>OCEANICA SOLAR SERVIÇOS DE MARKETING EIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K&amp;F MATEUS SERVICOS ADMINISTRATIVOS     </t>
-  </si>
-  <si>
-    <t>GLEYDSON SIQUEIRA LIMA DA SILVA</t>
-  </si>
-  <si>
-    <t>MARCOS POLI</t>
-  </si>
-  <si>
-    <t>FLAVIO RONELE CARVALHO CINTRA</t>
-  </si>
-  <si>
-    <t>IRAN RODRIGUES DE MESQUITA SEGUNDO</t>
-  </si>
-  <si>
-    <t>ARLAN RODRIGUES ROCHA</t>
-  </si>
-  <si>
-    <t>JOSE GILBERTO MARTINS</t>
-  </si>
-  <si>
-    <t>JEAN FERNANDO ARANDA GARRET ADAMANTE</t>
-  </si>
-  <si>
-    <t>RENAN SARAVY  DE CARVALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCILIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K &amp; F MATEUS SERVIÇOS ADMINISTRATIVOS </t>
-  </si>
-  <si>
-    <t>BRUNO GOMES TRINDADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDIO ANDRE RAMBO                     </t>
-  </si>
-  <si>
-    <t>GABRIEL POLI ARIMATHEA</t>
-  </si>
-  <si>
-    <t>RAPHAEL ALMENDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO ROBERTO CLARET DE SOUZA SIMOES    </t>
-  </si>
-  <si>
-    <t>LICITACAO</t>
-  </si>
-  <si>
-    <t>JOAO PAULO FRANÇA DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRICIA MAYARA DE ARAUJO BARBOSA       </t>
-  </si>
-  <si>
-    <t>F.C REICHEMBACK CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>ANTONIO BUENO FILHO</t>
-  </si>
-  <si>
-    <t>ISAIS REIS BARRETO</t>
-  </si>
-  <si>
-    <t>WANDERSON LIMA DA SILVA</t>
-  </si>
-  <si>
-    <t>ANDERSON LUIZ DE JESUS</t>
-  </si>
-  <si>
-    <t>WASHINGTON BELTRÃO</t>
-  </si>
-  <si>
-    <t>MARCILIO SANTANA DE ALMEIDA JUNIOR</t>
-  </si>
-  <si>
-    <t>THIAGO LUIZ ANDOLFATO SOARES</t>
-  </si>
-  <si>
-    <t>RODRIGO LESTA MONTEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL ALEXANDRE DA SILVA </t>
-  </si>
-  <si>
-    <t>FERNANDO BACELAR CAMPELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRISTYANE MARIANO DE JESUS             </t>
-  </si>
-  <si>
-    <t>MARCIA REGINA AZEVEDO FIGUEIREDO</t>
-  </si>
-  <si>
-    <t>BRENO DA SILVA PEREIRA</t>
-  </si>
-  <si>
-    <t>JANILSON GOMES DA FONSECA</t>
-  </si>
-  <si>
-    <t>GILVANE DA SILVA</t>
-  </si>
-  <si>
-    <t>IGOR NUNES OLIVEIRA</t>
-  </si>
-  <si>
-    <t>FRANCISCO AILTON FERREIRA</t>
-  </si>
-  <si>
-    <t>MAYCON OLIVEIRA AMARAL</t>
-  </si>
-  <si>
-    <t>ALECSSANDRA SANTANA REIS</t>
-  </si>
-  <si>
-    <t>SIRLENE BATISTA DE OLIBEIRA</t>
-  </si>
-  <si>
-    <t>LUIZ GUILHERME SOUZA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>PAULO CESAR SCHNEIDER JUNGES</t>
-  </si>
-  <si>
-    <t>IEDA MARA BRIZUENA</t>
-  </si>
-  <si>
-    <t>MARCELO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>MARCOS CESAR DA SILVA GUIMARAES</t>
-  </si>
-  <si>
-    <t>RAUL ZANDONA JUNIOR</t>
-  </si>
-  <si>
-    <t>LOHANNA QUEIROZ COHEN</t>
-  </si>
-  <si>
-    <t>RICARDO DE JESUS</t>
-  </si>
-  <si>
-    <t>JOAO FERNANDES DA SILVA NETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO MENEZES BRAUN DA SILVA         </t>
-  </si>
-  <si>
-    <t>ANDRE ALEXANDRE DOS SANTOS SILVEIRA</t>
-  </si>
-  <si>
-    <t>LUIZ ANTONIO PAIVA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>VELOX SOLUÇOES FINANCEIRAS</t>
-  </si>
-  <si>
-    <t>MAGNA LUCIA SOUZA FERNANDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL RAMOS </t>
-  </si>
-  <si>
-    <t>JOAO BATISTA LEONEL JUNIOR-ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIANO SILVESTRE DA SILVA              </t>
-  </si>
-  <si>
-    <t>MAIKE YUJI ITO</t>
-  </si>
-  <si>
-    <t>CICERO MARIANO DA SILVA</t>
-  </si>
-  <si>
-    <t>ALEX FABIANO NOBLE DIAS</t>
-  </si>
-  <si>
-    <t>ALICIO MUSSIO MAGALHAES DE PAULA</t>
-  </si>
-  <si>
-    <t>JOAO AUGUSTO DE SOUZA FILHO</t>
-  </si>
-  <si>
-    <t>MINARINI SILUCOES FINANCEIRAS EIRELI</t>
-  </si>
-  <si>
-    <t>TIAGO BATTISTELLA GONCALO</t>
-  </si>
-  <si>
-    <t>MAYARA CRISTINA CARVALHO FURNIEL MORAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEANDRO DIAS MARTINS                    </t>
-  </si>
-  <si>
-    <t>MARLON HENRIQUE ROSA</t>
-  </si>
-  <si>
-    <t>CAIO RIBEIRO DE SOUZA</t>
-  </si>
-  <si>
-    <t>BRUNO ALARCÃO CARISIO</t>
-  </si>
-  <si>
-    <t>ALEX HENRIQUE DA CUNHA</t>
-  </si>
-  <si>
-    <t>ADEMIR NUNES DE CARVALHO</t>
-  </si>
-  <si>
-    <t>K&amp;F MATEUS SERVIÇOS ADM</t>
-  </si>
-  <si>
-    <t>EDIVALDO BERTUOLO JUNIOR</t>
-  </si>
-  <si>
-    <t>ADRIANO VIDAL VALVERDE</t>
-  </si>
-  <si>
-    <t>AMOM LIIMA DE CARVALHO GOMES</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO ALEXANDRE MALDO                 </t>
-  </si>
-  <si>
-    <t>ECOPOWER EFICIENCIA ENERGETICA LTDA</t>
-  </si>
-  <si>
-    <t>LARINY CARLA</t>
-  </si>
-  <si>
-    <t>CAROLINA NAKASHIMA ROCHA</t>
-  </si>
-  <si>
-    <t>MARCIA ADRIANA DE OLIVEIRA COSTA</t>
-  </si>
-  <si>
-    <t>FLAVIO ROBERTO CHRISTOFOLO</t>
-  </si>
-  <si>
-    <t>ALEXSANDRO DA SILVA</t>
-  </si>
-  <si>
-    <t>RODRIGO DE LIMA SILVA</t>
-  </si>
-  <si>
-    <t>MARCIO ANTONIO DE FRANCA MORAES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO DOS SANTOS </t>
-  </si>
-  <si>
-    <t>CRISTIANO ALTARUGIO</t>
-  </si>
-  <si>
-    <t>GIS GESTAO IMOBILIARIA SEGURA LTDA</t>
-  </si>
-  <si>
-    <t>PAULO FLAVIO GUIMARAES</t>
-  </si>
-  <si>
-    <t>FLAVIO CONCEICAO DUTRA ME</t>
-  </si>
-  <si>
-    <t>JOAO LEONEL</t>
-  </si>
-  <si>
-    <t>LEANDRO PEREIRA LEMES</t>
-  </si>
-  <si>
-    <t>NEIRALDO MOURA MENDES</t>
-  </si>
-  <si>
-    <t>GREGORIO KARABACHIAN NOGAROTO</t>
-  </si>
-  <si>
-    <t>TIAGO CORADO MASCARENAHS</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO EVANGELISTA JUNIOR</t>
-  </si>
-  <si>
-    <t>MINARINI SOLUCOES FINANCEIRAS EIRELI</t>
-  </si>
-  <si>
-    <t>MINARINI SOLUÇÕES FINANCEIRAS</t>
-  </si>
-  <si>
-    <t>AGBERTO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO AMORIN</t>
-  </si>
-  <si>
-    <t>FELIPE SIMOES</t>
-  </si>
-  <si>
-    <t>DOUGLAS CESAR CASON</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO BUENO</t>
-  </si>
-  <si>
-    <t>GILDO AFONSO VIEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINARINI SOLUCOES FINANCEIRAS EIRELI    </t>
-  </si>
-  <si>
-    <t>RICARDO MALDO</t>
-  </si>
-  <si>
-    <t>JOSE SILVANEI FACCA FILHO</t>
-  </si>
-  <si>
-    <t>FABIO FARIA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ZANON E ZANON CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>AFRANIO ZAMPOLI</t>
-  </si>
-  <si>
-    <t>WILSTON SANTOS DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>REGINALDO BLASQUES DIAS</t>
-  </si>
-  <si>
-    <t>FABIO JUNIOR VARGAS DA ROSA</t>
-  </si>
-  <si>
-    <t>M SANTOS ALVES CORRESPONDENTE BANCARIO L</t>
-  </si>
-  <si>
-    <t>VANESSA SUELI ESTEVES DE OLIVEIRA ANDRAD</t>
-  </si>
-  <si>
-    <t>MARCIO LEME DE PAULA</t>
-  </si>
-  <si>
-    <t>FULVIO LUCAS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>GUTEMBERG</t>
-  </si>
-  <si>
-    <t>PAULO GUIMARÃES</t>
-  </si>
-  <si>
-    <t>DANILO BRITO LESSA</t>
-  </si>
-  <si>
-    <t>DIEGO DIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDERSON LUIZ DE JESUS </t>
-  </si>
-  <si>
-    <t>LUCIO CESAR GONÇALVES</t>
-  </si>
-  <si>
-    <t>ANDERSON LUCAS DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>GRAZIELLA FEITOZA DIAS</t>
-  </si>
-  <si>
-    <t>CAIO RIBERIO DE SOUZA</t>
-  </si>
-  <si>
-    <t>JOSE EUZEBIO LIMA PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEANDRO PEREIRA LEMES                   </t>
-  </si>
-  <si>
-    <t>RIVALDO CRISTIANO KAZAMA DA CUNHA</t>
-  </si>
-  <si>
-    <t>PATRICK ISRAEL CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIAGO CORADO MASCARENHAS </t>
-  </si>
-  <si>
-    <t>VICTOR LUIS FIOMANO</t>
-  </si>
-  <si>
-    <t>MARCELO POLIZELLI NOGUEIRA</t>
-  </si>
-  <si>
-    <t>ANDRE OLIVEIRA MARCELINO</t>
-  </si>
-  <si>
-    <t>CARLOS HENRIQUE HONORATO VAN DER BROOCKE</t>
-  </si>
-  <si>
-    <t>ADRIANO SILVESTRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO HENRIQUE AQUINO DE MATTOS       </t>
-  </si>
-  <si>
-    <t>JOSE WILLKER BEZERRA DA SILVA</t>
-  </si>
-  <si>
-    <t>RICARDO CARNEIRO DOURADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUILHERME MAIA NOGUEIRA                 </t>
-  </si>
-  <si>
-    <t>EDUARDO DE ABREU PASSAGLI</t>
-  </si>
-  <si>
-    <t>RICARDO HENRIQUE AQUINO DE MATTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEONEL </t>
-  </si>
-  <si>
-    <t>DANIEL ALEXANDRE</t>
-  </si>
-  <si>
-    <t>LEONARDO SILVEIRA MASSUCATO</t>
-  </si>
-  <si>
-    <t>WELINGTON DE FARIA LIMA</t>
-  </si>
-  <si>
-    <t>RODRIGO GONZAGA</t>
-  </si>
-  <si>
-    <t>FABIANO CAMILLO</t>
-  </si>
-  <si>
-    <t>JULIANA MOSCARDO</t>
-  </si>
-  <si>
-    <t>AIRTON CAPASSI</t>
-  </si>
-  <si>
-    <t>ANDERSON DE ALMEIDA REGO</t>
-  </si>
-  <si>
-    <t>BRENDO SILVA MONTOZELO</t>
-  </si>
-  <si>
-    <t>MARCOS WILLIAN MIRACHI DOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALVARO JOSE BARBOSA             </t>
-  </si>
-  <si>
-    <t>MAGNA KATIA SILVA SANCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA CAMPOS SILVA DUARTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIANO SILVESTRE DA SILVA </t>
-  </si>
-  <si>
-    <t>GILMAR BELSHOFF</t>
-  </si>
-  <si>
-    <t>SIDNEI</t>
-  </si>
-  <si>
-    <t>DANIEL RAMOS DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>TIAGO SENA DE SOUZA</t>
-  </si>
-  <si>
-    <t>KARLA VILELA</t>
-  </si>
-  <si>
-    <t>JADER RAFAEL CORACINI DE ASSIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOSTENES CHRISTIAN DE OLIVEIRA          </t>
-  </si>
-  <si>
-    <t>RAFAEL ANDRADE DOS REIS</t>
-  </si>
-  <si>
-    <t>MIRACH STAR INTERMEDIAÇÃO DE NEGOCIOS LT</t>
-  </si>
-  <si>
-    <t>MAURICIO DA SILVA KLEINICKE</t>
-  </si>
-  <si>
-    <t>MANOEL FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNO ALARCÃO CARISIO                   </t>
-  </si>
-  <si>
-    <t>LUIZ CRISTIANO FERREIRA DIAS</t>
-  </si>
-  <si>
-    <t>ANDERSON RAPACCI</t>
-  </si>
-  <si>
-    <t>FRANCISCO JOSE NOGUEIRA SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE EDUARDO CASTRO DE ARAUJO           </t>
-  </si>
-  <si>
-    <t>DANIEL SALGADO DE SOUZA</t>
-  </si>
-  <si>
-    <t>GIOVANI LEAL TRAVI</t>
-  </si>
-  <si>
-    <t>DENIS FERNANDO DIAS DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIAGO BATTISTELLA GONCALO               </t>
-  </si>
-  <si>
-    <t>FERNANDO ANTONIO COSTA POMPEU</t>
-  </si>
-  <si>
-    <t>GLAYSSON ROCHA GABRIEL</t>
-  </si>
-  <si>
-    <t>ALEX CASTRO CLARA</t>
-  </si>
-  <si>
-    <t>NERIO DOMINGOS DA SILVA</t>
-  </si>
-  <si>
-    <t>LUIZ FABIANO SOARES ALVES</t>
-  </si>
-  <si>
-    <t>JULIO NETO DIAS EVANGELISTA</t>
-  </si>
-  <si>
-    <t>FABIO SOARES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>IGOR LUIZ DA COSTA MACHADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIO CONCEICAO DUTRA ME               </t>
-  </si>
-  <si>
-    <t>PAULO KOCHHANN JUNIOR</t>
-  </si>
-  <si>
-    <t>CHARLES DALFIOR BAYER</t>
-  </si>
-  <si>
-    <t>PAULO EDUARDO BARBOSA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>EMERSON LUIZ DA SILVA</t>
-  </si>
-  <si>
-    <t>THIAGO GASPARINI GUIMARÃES</t>
-  </si>
-  <si>
-    <t>CLAUDIO ANDRE RAMBO</t>
-  </si>
-  <si>
-    <t>RUBENS DA SILVA JUNIOR</t>
-  </si>
-  <si>
-    <t>JULIO CESAR DE SOUZA LEITE</t>
-  </si>
-  <si>
-    <t>CLEBER PEDROTTI PINTO</t>
-  </si>
-  <si>
-    <t>MARCUS V ARAUJO DE AQUINO ALBUQUERQUE</t>
-  </si>
-  <si>
-    <t>PAULO DE MORAIS CUNHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL RAMOS DE ALMEIDA                 </t>
-  </si>
-  <si>
-    <t>FERNANDO MENEZES BRAUN DA SILVA</t>
-  </si>
-  <si>
-    <t>DELMO DA SILVA RAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WELBER KELEM TAVARES                    </t>
-  </si>
-  <si>
-    <t>ELAINE CRISTINA ZAFALON</t>
-  </si>
-  <si>
-    <t>LUZ KARINA RAQUEL BOTBOL</t>
-  </si>
-  <si>
-    <t>JHONATAN KAUE MORAIS DA SILVEIRA</t>
-  </si>
-  <si>
-    <t>LINDOMAR SIQUEIRA</t>
-  </si>
-  <si>
-    <t>VANDERLEI NUNES DA SILVA</t>
-  </si>
-  <si>
-    <t>RENATO VIEIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ELKJAER GONCALVES DE CARVALHO COSTA</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS TEODORO DA COSTA MILLIATTI</t>
-  </si>
-  <si>
-    <t>MATHEUS PEREIRA BOTARO</t>
-  </si>
-  <si>
-    <t>LEANDRO PEREIRA FELLINI</t>
-  </si>
-  <si>
-    <t>GABRIEL DUNNINGHAN TIBURCIO LEITAO</t>
-  </si>
-  <si>
-    <t>WR BALDACIN FRANCHISING</t>
-  </si>
-  <si>
-    <t>LORRAINE GONÇALVES DA SILVA</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO CAVALCANTI DE MACEDO JUNI</t>
-  </si>
-  <si>
-    <t>JOSE MARIA LOBATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA PAULA OYADOMARI                     </t>
-  </si>
-  <si>
-    <t>JOSE EDUARDO CASTRO DE ARAUJO</t>
-  </si>
-  <si>
-    <t>MARCIO FLOSI DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCIO FLOSI DE OLIVEIRA                </t>
-  </si>
-  <si>
-    <t>JOÃO FERNANDES DA SILVA NETO</t>
-  </si>
-  <si>
-    <t>WELLITON ASSIS</t>
-  </si>
-  <si>
-    <t>TIAGO CORADO MASCARENHAS</t>
-  </si>
-  <si>
-    <t>BRUNA VAZ DE LIMA</t>
-  </si>
-  <si>
-    <t>ROBSON CARDOSO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>PATRICIA MAYARA DE ARAUJO BARBOSA</t>
-  </si>
-  <si>
-    <t>DEVILSON DA SILVA SOUZA</t>
-  </si>
-  <si>
-    <t>RAPHAEL CARLOS CUSTODIO E SILVA</t>
-  </si>
-  <si>
-    <t>CESAR DIAS PONTE</t>
-  </si>
-  <si>
-    <t>EDANGE ANDRADE BOAVENTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINARINI </t>
-  </si>
-  <si>
-    <t>RICARDO LUIS AFONSO</t>
-  </si>
-  <si>
-    <t>ADRIANA APARECIDA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ANALICE  DIOGO DA CRUZ FURIOTTI</t>
-  </si>
-  <si>
-    <t>FABIANO LUIS FERREIRA MOREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCIA ADRIANA DE OLIVEIRA COSTA        </t>
-  </si>
-  <si>
-    <t>GREGORIO KABACHIAN NOGAROTO</t>
-  </si>
-  <si>
-    <t>WELLINGTON MESSIAS DE ARAUJO GOES</t>
-  </si>
-  <si>
-    <t>DEIVYTH ALVES CODRIGNANI</t>
-  </si>
-  <si>
-    <t>VANESSA SCALDO DANI</t>
-  </si>
-  <si>
-    <t>PRISCILA DE SOUZA SANTOS</t>
-  </si>
-  <si>
-    <t>MATEUS REBELLO</t>
-  </si>
-  <si>
-    <t>JOICE BOMFIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITORIO JUNIOR LOURENCO                 </t>
-  </si>
-  <si>
-    <t>JORGE SANTOS DA SILVA</t>
-  </si>
-  <si>
-    <t>ELANE DE SOUSA BARBOSA</t>
-  </si>
-  <si>
-    <t>VALTER RICARDO GONÇALVES FARIA</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>KAIQUE DOS SANTOS PEDRIZ</t>
-  </si>
-  <si>
-    <t>CLAUDENILSON DE SOUZA RODRIGUES</t>
-  </si>
-  <si>
-    <t>VITORIO JUNIOR LOURENCO</t>
-  </si>
-  <si>
-    <t>FABIANA KAREN RUZ BORGES</t>
-  </si>
-  <si>
-    <t>WELLITON ASSIS DE AMARAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRAN RODRIGUES DE MESQUITA SEGUNDO      </t>
-  </si>
-  <si>
-    <t>SOSTENES CHRISTIAN DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL RAMOS DE ALMEIDA </t>
-  </si>
-  <si>
-    <t>VISANGE CORRETORA  DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>FABRICIO GUIMARAES FELIX</t>
-  </si>
-  <si>
-    <t>FABRICIO SÃO PEDRO DE GINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE HUMBERTO GAZONI                    </t>
-  </si>
-  <si>
-    <t>ANA LIZA RODRIGUES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>RICARDO ALEXANDRE MALDO</t>
-  </si>
-  <si>
-    <t>IGOR PIERRE SEVILHA MANGABEIRA BORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENEDITO MENDES DE OLIVEIRA             </t>
-  </si>
-  <si>
-    <t>WILMAR DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>LUCIO CESAR GONCALVES</t>
-  </si>
-  <si>
-    <t>FABIANE ARAGÃO BARBOZA BOLIGON</t>
-  </si>
-  <si>
-    <t>COOPERCITRUS COOPERATIVA DE PRODUTORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRENO DA SILVA PEREIRA </t>
-  </si>
-  <si>
-    <t>ARI DE ALMEIDA FILHO</t>
-  </si>
-  <si>
-    <t>FLAVIO HENRIQUE DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>K&amp;F MATEUS SERVICOS ADMINISTRATIVOS</t>
-  </si>
-  <si>
-    <t>RICARDO DE PAULA SOUZA</t>
-  </si>
-  <si>
-    <t>SANDRA LUCIANA PETERSEN GUTSCH</t>
-  </si>
-  <si>
-    <t>JULIO MOREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>HENRIQUE MORINA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>ELKJAER GONÇALVES DE CARVALHO COSTA</t>
-  </si>
-  <si>
-    <t>MARCELA SILVA CAMPOS</t>
-  </si>
-  <si>
-    <t>ADRIANO SILVESTRE DA SILVA</t>
-  </si>
-  <si>
-    <t>LUIZ GONZAGA DANTAS DA SILVA</t>
-  </si>
-  <si>
-    <t>VANESSA CAMPOS SILVA DUARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO DOS SANTOS                      </t>
-  </si>
-  <si>
-    <t>DANTE PEREZ CARPIGIANI</t>
-  </si>
-  <si>
-    <t>DAIANE -A.L.R. DOS SANTOS E D.S.CAETANO</t>
-  </si>
-  <si>
-    <t>MARIA EDUARDA RUBACK DA SILVA</t>
-  </si>
-  <si>
-    <t>RICARDO BELLAFRONTE GREGUIN</t>
-  </si>
-  <si>
-    <t>ECOPOWER</t>
-  </si>
-  <si>
-    <t>CLEBER MATIAS DE ANDRADE</t>
-  </si>
-  <si>
-    <t>ELIAS SANTOS BARBOSA</t>
-  </si>
-  <si>
-    <t>LUCAS HENRIQUE XAVIER DE CARVALHO</t>
-  </si>
-  <si>
-    <t>ECOPOWER EFICIENTE ENERGETICA LTDA</t>
-  </si>
-  <si>
-    <t>GILBERTO JOSE DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ARLINDO JOSE DE PAIVA E MATOS</t>
-  </si>
-  <si>
-    <t>ZAMPOLI REPRESENTACOES LTDA</t>
-  </si>
-  <si>
-    <t>CARLOS CESAR ALVES DE SOUZA</t>
-  </si>
-  <si>
-    <t>RICARDO GREGUIN</t>
-  </si>
-  <si>
-    <t>SIMONE VAN HEES ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO MALDO </t>
-  </si>
-  <si>
-    <t>EDIVAN ANDRADE DA SILVA</t>
-  </si>
-  <si>
-    <t>CHRISTYANE MARIANO DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELAINE CRISTINA ZAFALON                 </t>
-  </si>
-  <si>
-    <t>MELINA NUNES OLIVEIRA</t>
-  </si>
-  <si>
-    <t>GILSON MORAIS DA CONCEIÇÃO</t>
-  </si>
-  <si>
-    <t>ASSISTEC COMERCIO DE EQUIPAMENTOS ELETRO</t>
-  </si>
-  <si>
-    <t>FELIPE SERRA DARROZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE WILLKER BEZERRA DA SILVA           </t>
-  </si>
-  <si>
-    <t>AMOM LIMA DE CARVALHO GOMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE AUGUSTO EVANGELISTA JUNIOR         </t>
-  </si>
-  <si>
-    <t>LEANDRO DIAS MARTINS</t>
   </si>
   <si>
     <t>N. PEDIDO</t>
